--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44460.70982638889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45730.63277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44606</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45810.50783564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45189</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>46034.37697916666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45616</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44490</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>45352.45320601852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45888.34414351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>45888.42650462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>44867</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45735.34555555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44266</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>45358.44835648148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44785.43395833333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45652.74018518518</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45853</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>45832</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>45075</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45695.93653935185</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>46041.4778125</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>46009.57502314815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44937</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45174.32886574074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44980</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45093.3646875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45093.3703587963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45428.42564814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45594</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>45110</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44448.31037037037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44966.64579861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>45111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44917</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>45891.63179398148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>45898.59107638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44365</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45840.8834375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>45604.50471064815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>45616.66118055556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>45850.60619212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>45863.39380787037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45754.48619212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45042</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>45695.93015046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>45096</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45999.37929398148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>46002.38959490741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45721.65631944445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>45449.38423611111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>46008.54748842592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>46057.69800925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>46057.69100694444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44917</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45615.62699074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45316</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>45581.56951388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>45307</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44504.50979166666</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44656</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>45541.51222222222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>45701.45335648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>44909</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44261</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44347</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44378</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44272</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>44300.3625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>44385.40346064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>44491</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>44278</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>44379</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44462</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44363.76037037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44267.32773148148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>44407.35815972222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>44630</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44418.56681712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>44320</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>44236</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         <v>44342.65030092592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>44365</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44363.75403935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44889.52459490741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44412</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44859</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44861</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>44475</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>44246</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>44365</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>44473.51576388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44245</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44449.57666666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>44587</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>44656</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44816</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44571.48392361111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44844</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44645.61962962963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44565</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44256</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44365</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44312.52064814815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44593.58975694444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44831.51668981482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44840</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>44783</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>44365</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44375.42613425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44369</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44328</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44684</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44347</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44806.30436342592</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44315.67481481482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44364.69368055555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44493.7688425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44488.93328703703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44833.85800925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44386.50282407407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44468.38931712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44587</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44624.4716087963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44294.69576388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44449.61309027778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44449</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>44419</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>44321.32876157408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>44295.56511574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>44340.37452546296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44363.75775462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>44284</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>44259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>44870.4825462963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>44776.4441087963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44771.403125</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44748.39954861111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44365</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44270.62047453703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44612.64552083334</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44407.33940972222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44449</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44617.57709490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44551</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44508</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44246</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44853</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44851</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44449.61662037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44594.37494212963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44378.26744212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44418</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44370.25283564815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44881.46946759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44551.60501157407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44813.46402777778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>44785.35797453704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>44378.27100694444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44650</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44839.34592592593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44805.72581018518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44243.24046296296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44250</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44299.65049768519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44300.5134375</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44363.75042824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44526.31395833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44376.47229166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44375.39068287037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44578.49199074074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44407.35585648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44407.35945601852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44384</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44634</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44634</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44870.4822337963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44376</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44551</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45273.43420138889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45687.58510416667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45775.61712962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>45022</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>45488.44295138889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>45649.55618055556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>45649.59947916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>45082.42459490741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45517.5049074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45054</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45230.60807870371</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44489</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>45123.42461805556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>45091.44966435185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>45092.3945949074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45606.57449074074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44819</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>45162</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>45392.56559027778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>44984</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>45278</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>45075</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>44657</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44544.63826388889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>45181</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44295</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44818</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44933.42714120371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44973.87971064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45775.59509259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44985.4822337963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>45577.88273148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45561</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>45307</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>45394.66318287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45175</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45021</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>45702.6415625</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45028.64141203704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45111.3095949074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45668.49403935186</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>45327.3969212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>45376.57670138889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>45037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>45728.58208333333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44243</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44909.50149305556</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44909.51041666666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44494.38530092593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44973.51290509259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44594</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45448.40923611111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45149</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45189</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>45729.53497685185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>45107.72561342592</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44982.82561342593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>45887.44094907407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45727</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45754.5805787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44302.60905092592</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45798.38493055556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45189</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>44833.86636574074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>45075</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>45773</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45260</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45525.37091435185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45873</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45761.36119212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>44936.7375925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45849.46460648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>45106.66513888889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>45547.44084490741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45791.46207175926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45849.47482638889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44302</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>45805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45049</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45222.46246527778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45253</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45737.66273148148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45121</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>45685.44299768518</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44609.62754629629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45791.45240740741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>45366.36186342593</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45698.47010416666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45727.54988425926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45810.50623842593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45888.65425925926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44407.34103009259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45260</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45888.41995370371</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44351</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45628</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45888</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45346.58555555555</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44992.53199074074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45812.31928240741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45813.61375</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>45409.28716435185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45891.37724537037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45812.59289351852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45561</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45561</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45813.61592592593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45813.61734953704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>44928.58678240741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45894</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44690.55664351852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45894.45178240741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45894.45385416667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>45572.55528935185</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44778.47969907407</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45664</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44362</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44867.83100694444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45798.87049768519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45338.3546412037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>45484.50075231482</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>45407.33482638889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>45818</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>45818.33222222222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>45824.63803240741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45820.40359953704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45446.57478009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45225</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45820.4099537037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45821.48188657407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44949.39141203704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45901.85667824074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45901.8715625</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45820.40600694445</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45820.43005787037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45852.64087962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45063</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45254.55388888889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>45478</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45825.38628472222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45905.61746527778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44959.60054398148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>45188</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>44308</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45702.52855324074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45908.56230324074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45824.57248842593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45908.49853009259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>44915.64974537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45744.34409722222</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45840.8866087963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45394.64731481481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45824.47503472222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45911.40376157407</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45824.56317129629</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45525.33855324074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>44721</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45910.73662037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45911.42645833334</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>44903.63063657407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>44453</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>45368.71136574074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45369.51261574074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45772.56983796296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45914.37706018519</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45915.28944444445</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44390</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44368.47782407407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>45912.47719907408</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44853.58972222222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>45912.49222222222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>44890.45898148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44951.40828703704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>45917.62305555555</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45917.64195601852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45917.55601851852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45917.55890046297</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45429.32715277778</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45331.60153935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45561.61627314815</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45917.45019675926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45223</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45917.78599537037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45831.28561342593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45918.64011574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45210.43765046296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45833.63016203704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45561.42905092592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44497.23909722222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45921.35350694445</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45757.42518518519</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45091.44643518519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45832</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45925.73370370371</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45240.48289351852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44914.47359953704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44914.5846875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45925.48741898148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45833.62319444444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44931.48902777778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>45923.75690972222</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45834.48547453704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45096</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45359.64494212963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45834.48055555556</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45926.54017361111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45926.54600694445</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45926.56071759259</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>45279</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45925.83987268519</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45926.53236111111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45926.46402777778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45926.46829861111</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45834.42243055555</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>45926.48134259259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>45926.72231481481</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>45926.72728009259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>45728.71716435185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45926.72362268518</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>45926.45481481482</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45926.45870370371</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45517.57674768518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45834.49290509259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>45931</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>45930</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>45930</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45931</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45931</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44832.45126157408</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45931.69703703704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44733.39600694444</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>45933.57952546296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44382</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>45694.35719907407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44275.89116898148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44390.44760416666</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>45754.4484375</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44270</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>45837.43159722222</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>45837.45643518519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>45933.42581018519</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45841.34291666667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45936.54049768519</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45191.43909722222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>44865.32546296297</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45217.64325231482</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45938.50009259259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45938.59039351852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45145</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45145.57739583333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>45840.36429398148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45434.42591435185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>45163.48395833333</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>45182</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45938.50091435185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45938.64991898148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44819</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>44528.68445601852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>45616.69401620371</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45744.58425925926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>45091.44322916667</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45169.62481481482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45940.33195601852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45943.655625</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45233</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45616.68453703704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45842.47361111111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45103.42912037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45103.4578125</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45940.35447916666</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45940.39543981481</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45817.4940625</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45940.44003472223</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45945.36599537037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45846.46805555555</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>45342.93295138889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>45846.47327546297</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45670.48837962963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45321.30368055555</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45649.63702546297</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45213.83515046296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45947.63015046297</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>45946.88928240741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>45946.40403935185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45946.88241898148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45629.52961805555</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45852.67128472222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45135</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45832</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44945.47278935185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44333.68109953704</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45856.43209490741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45856.42729166667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45211.43076388889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45856.4249537037</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>45859.46207175926</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>45762.47326388889</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45951.35694444444</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45951.49403935186</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45862.61716435185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45862.62265046296</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45863.79356481481</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45863.78525462963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45818</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45863.79833333333</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45953</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45637.55811342593</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45616.70280092592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44811.50899305556</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45713.67922453704</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45714.24815972222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45953</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45096</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>44368.48951388889</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45216</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44909.49190972222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44991.4569212963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45873.50734953704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45069.42486111111</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44236</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45679</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44973.68408564815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44684.43402777778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45764</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45764</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44974.39552083334</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45057</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45057</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45958.35737268518</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45958.60134259259</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44431</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45958.37892361111</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>44972</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>45606.57791666667</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>45958.37803240741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>45958.37961805556</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45958.37677083333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>45217.49613425926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>45174.32129629629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>45881.43982638889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45385.47306712963</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45011</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45880.33408564814</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44645.61398148148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45880.32877314815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45400.70824074074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45964.30596064815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44462</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44463.49251157408</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45231</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45610.49638888889</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45055.32497685185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45966.34114583334</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45966.7106712963</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45744.56760416667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>45713</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>45714.28113425926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>45882.68072916667</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45882.68247685185</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45883.58712962963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45664.89855324074</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>45253</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>45411.56006944444</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>45883.60289351852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>45191.39680555555</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>45710.35591435185</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>45474.54547453704</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>45649.57708333333</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>45649.58368055556</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45649.63318287037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>45762.406875</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37111,7 +37111,7 @@
         <v>44917</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44938.4812962963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44376</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37287,7 +37287,7 @@
         <v>45975.52554398148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>45737.66959490741</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>45975.57657407408</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>45603</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44335</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>45560.66090277778</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44505</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>45253</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>45603</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>45602</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>45648</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>45975.56870370371</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>45974.37464120371</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>45775</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>45975.56442129629</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44867</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>45975.52761574074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>45169.63607638889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44364</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>45166.81506944444</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45975.82456018519</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>45280.75414351852</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>45758.47427083334</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>45603</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44580.39465277778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>45591.31592592593</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>45043</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>45616.69777777778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>45981.33762731482</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38955,7 +38955,7 @@
         <v>45981.33881944444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45981.34174768518</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39079,7 +39079,7 @@
         <v>45980.57716435185</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45980.58033564815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39203,7 +39203,7 @@
         <v>45980.58306712963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>45980.58913194444</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39327,7 +39327,7 @@
         <v>45426.64987268519</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39384,7 +39384,7 @@
         <v>45980.58837962963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>45981.34046296297</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39508,7 +39508,7 @@
         <v>45050</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39565,7 +39565,7 @@
         <v>45980.58503472222</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39627,7 +39627,7 @@
         <v>45980.58711805556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>45330</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>45980.58179398148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>45103.4828125</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39865,7 +39865,7 @@
         <v>45980.56716435185</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39927,7 +39927,7 @@
         <v>44974.3628125</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39984,7 +39984,7 @@
         <v>45980.56981481481</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40046,7 +40046,7 @@
         <v>44693.40193287037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40108,7 +40108,7 @@
         <v>44739</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
         <v>45985.65287037037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40222,7 +40222,7 @@
         <v>45664.88829861111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>44494.39315972223</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40336,7 +40336,7 @@
         <v>45296</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>45187.45348379629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44586.39371527778</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40507,7 +40507,7 @@
         <v>45986.55488425926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40564,7 +40564,7 @@
         <v>46029.59989583334</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40621,7 +40621,7 @@
         <v>44904</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40678,7 +40678,7 @@
         <v>45986.53271990741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40740,7 +40740,7 @@
         <v>45986.56459490741</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         <v>46029.59649305556</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40854,7 +40854,7 @@
         <v>45986.46010416667</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         <v>44348</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>45987</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41035,7 +41035,7 @@
         <v>44798.56335648148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>45733.60050925926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>44266.66663194444</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>45415.32408564815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>44977.54047453704</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>45721</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>45035</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>46031.4325462963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>46031.66224537037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>44909</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45090.53722222222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44621</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>44579.36934027778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45392.59135416667</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45372.34578703704</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45988.49348379629</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>44803</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>44904</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44904</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45560.65891203703</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45079.49798611111</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45763</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45197</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45469.49331018519</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>44418</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45993.52201388889</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45478.55826388889</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>46034.41659722223</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>44939.46715277778</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45762.6184375</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>44966.65418981481</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>44966.65623842592</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>46036.49694444444</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45313</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45079</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45733.27633101852</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45090.50210648148</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45756.4618287037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45342.58582175926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>44908</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45561</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43439,7 +43439,7 @@
         <v>45177</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>45327</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>45090.57193287037</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43615,7 +43615,7 @@
         <v>45110</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         <v>45720.48189814815</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>45078</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>45999.38480324074</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>45013.53428240741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>45754.58804398148</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43972,7 +43972,7 @@
         <v>45999.64255787037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44034,7 +44034,7 @@
         <v>44900.47381944444</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44091,7 +44091,7 @@
         <v>45072</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44148,7 +44148,7 @@
         <v>44465.45304398148</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44205,7 +44205,7 @@
         <v>45713</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>45407.58145833333</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>45177</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>46000.39462962963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44438,7 +44438,7 @@
         <v>44970.82792824074</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>45763</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44552,7 +44552,7 @@
         <v>46000.64511574074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>45477.45034722222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44666,7 +44666,7 @@
         <v>45551.45708333333</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>44868.38045138889</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45728.57760416667</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>44866.6291550926</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45022.47684027778</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>45077</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>45196.41028935185</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>46002.38592592593</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>45190</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>45408.42273148148</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>45615</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44368.48412037037</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45069.67789351852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>46048.58149305556</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>46049.44773148148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>45369.55871527778</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>44957</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45640,7 +45640,7 @@
         <v>44957.56633101852</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45697,7 +45697,7 @@
         <v>45695.44407407408</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45754,7 +45754,7 @@
         <v>44333.63303240741</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>45013.59971064814</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45552.43833333333</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>45149.53783564815</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>45440</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>45082</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44973</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>45092.3869675926</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>46051.57055555555</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45754.57761574074</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44999</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>44596.39430555556</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>45754.57903935185</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46520,7 +46520,7 @@
         <v>46010</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>46052.44471064815</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>44841</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>46054.86493055556</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>45121</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46805,7 +46805,7 @@
         <v>45575.40405092593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46862,7 +46862,7 @@
         <v>45098</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46919,7 +46919,7 @@
         <v>45072.49364583333</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46976,7 +46976,7 @@
         <v>45022</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>46052.44284722222</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45470.66217592593</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>46052.44387731481</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>44959</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>46057.68822916667</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>44839</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47375,7 +47375,7 @@
         <v>45369.51451388889</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47432,7 +47432,7 @@
         <v>46057.68931712963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47489,7 +47489,7 @@
         <v>45093.41260416667</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47546,7 +47546,7 @@
         <v>45463</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47603,7 +47603,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47660,7 +47660,7 @@
         <v>45121.62556712963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47717,7 +47717,7 @@
         <v>45561</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47779,7 +47779,7 @@
         <v>45561</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47841,7 +47841,7 @@
         <v>44746.52041666667</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47898,7 +47898,7 @@
         <v>45439.56545138889</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47955,7 +47955,7 @@
         <v>45534.39119212963</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48012,7 +48012,7 @@
         <v>44882</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         <v>45075</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48126,7 +48126,7 @@
         <v>46058.68314814815</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48183,7 +48183,7 @@
         <v>45070</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48240,7 +48240,7 @@
         <v>45244</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48297,7 +48297,7 @@
         <v>44881.47697916667</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48354,7 +48354,7 @@
         <v>45478.47974537037</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48411,7 +48411,7 @@
         <v>45740.58935185185</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48468,7 +48468,7 @@
         <v>44869.44665509259</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48525,7 +48525,7 @@
         <v>45154.46340277778</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48587,7 +48587,7 @@
         <v>44873.78972222222</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48644,7 +48644,7 @@
         <v>44908</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48701,7 +48701,7 @@
         <v>45155</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48758,7 +48758,7 @@
         <v>45084.52010416667</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48815,7 +48815,7 @@
         <v>44973.68172453704</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48872,7 +48872,7 @@
         <v>45442.44923611111</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48929,7 +48929,7 @@
         <v>45336</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48986,7 +48986,7 @@
         <v>44844</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49043,7 +49043,7 @@
         <v>45079.47167824074</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49100,7 +49100,7 @@
         <v>45315</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49157,7 +49157,7 @@
         <v>45341.43773148148</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49214,7 +49214,7 @@
         <v>45509.84324074074</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49271,7 +49271,7 @@
         <v>45510.39084490741</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49328,7 +49328,7 @@
         <v>44713.63434027778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49385,7 +49385,7 @@
         <v>45367.29472222222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49442,7 +49442,7 @@
         <v>45635.46313657407</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49499,7 +49499,7 @@
         <v>45475.72082175926</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>45475.76681712963</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49613,7 +49613,7 @@
         <v>44825.37355324074</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49670,7 +49670,7 @@
         <v>45666.41087962963</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49727,7 +49727,7 @@
         <v>44497</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49784,7 +49784,7 @@
         <v>45554</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49846,7 +49846,7 @@
         <v>45763.38137731481</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49908,7 +49908,7 @@
         <v>45363.79693287037</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45071</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50022,7 +50022,7 @@
         <v>45117.52946759259</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50079,7 +50079,7 @@
         <v>45356.37466435185</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50136,7 +50136,7 @@
         <v>45175.79483796296</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50193,7 +50193,7 @@
         <v>44953</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50250,7 +50250,7 @@
         <v>45335</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50307,7 +50307,7 @@
         <v>45335</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50369,7 +50369,7 @@
         <v>45218.41752314815</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50426,7 +50426,7 @@
         <v>45093</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>45078</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50540,7 +50540,7 @@
         <v>44816</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50597,7 +50597,7 @@
         <v>44928</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50654,7 +50654,7 @@
         <v>45414.88950231481</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50711,7 +50711,7 @@
         <v>44307.41146990741</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50768,7 +50768,7 @@
         <v>45653.66523148148</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50825,7 +50825,7 @@
         <v>44713.6349537037</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50882,7 +50882,7 @@
         <v>45545</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50939,7 +50939,7 @@
         <v>45734.48820601852</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50996,7 +50996,7 @@
         <v>45385</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51053,7 +51053,7 @@
         <v>45668.61670138889</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51110,7 +51110,7 @@
         <v>44889</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51167,7 +51167,7 @@
         <v>45754.58637731482</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51229,7 +51229,7 @@
         <v>45111.56173611111</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51286,7 +51286,7 @@
         <v>45131</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51343,7 +51343,7 @@
         <v>44756</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51405,7 +51405,7 @@
         <v>45063.42767361111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51462,7 +51462,7 @@
         <v>44874.3702662037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51519,7 +51519,7 @@
         <v>45119.35530092593</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51576,7 +51576,7 @@
         <v>45104.47891203704</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51638,7 +51638,7 @@
         <v>44368</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>44677</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>45198.49947916667</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51809,7 +51809,7 @@
         <v>45579</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51866,7 +51866,7 @@
         <v>45301.31474537037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51923,7 +51923,7 @@
         <v>45301.32008101852</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51980,7 +51980,7 @@
         <v>45649.56231481482</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52037,7 +52037,7 @@
         <v>45649.56582175926</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52094,7 +52094,7 @@
         <v>45512.32738425926</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52151,7 +52151,7 @@
         <v>44742</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52208,7 +52208,7 @@
         <v>44340.37858796296</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52265,7 +52265,7 @@
         <v>45359.64686342593</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52322,7 +52322,7 @@
         <v>44713.63319444445</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52379,7 +52379,7 @@
         <v>44917.52387731482</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52441,7 +52441,7 @@
         <v>45096</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52498,7 +52498,7 @@
         <v>45590.48756944444</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52555,7 +52555,7 @@
         <v>44798</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52612,7 +52612,7 @@
         <v>44593</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52669,7 +52669,7 @@
         <v>45098</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52726,7 +52726,7 @@
         <v>45392.56177083333</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52783,7 +52783,7 @@
         <v>44746.56648148148</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52840,7 +52840,7 @@
         <v>45056</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52897,7 +52897,7 @@
         <v>45118</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52954,7 +52954,7 @@
         <v>45118.44516203704</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         <v>45579</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53068,7 +53068,7 @@
         <v>45056.72038194445</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53125,7 +53125,7 @@
         <v>45544.7580787037</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53182,7 +53182,7 @@
         <v>44827</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53239,7 +53239,7 @@
         <v>44973.28375</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53296,7 +53296,7 @@
         <v>44407.33692129629</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53353,7 +53353,7 @@
         <v>45016.44748842593</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53410,7 +53410,7 @@
         <v>44825</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53467,7 +53467,7 @@
         <v>45653.6771875</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53524,7 +53524,7 @@
         <v>45095</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53581,7 +53581,7 @@
         <v>45244</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53638,7 +53638,7 @@
         <v>45744.33675925926</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53695,7 +53695,7 @@
         <v>45211</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53752,7 +53752,7 @@
         <v>45367.31642361111</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53809,7 +53809,7 @@
         <v>45773</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53866,7 +53866,7 @@
         <v>45072.49809027778</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53923,7 +53923,7 @@
         <v>45244</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53980,7 +53980,7 @@
         <v>44999.51451388889</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54037,7 +54037,7 @@
         <v>45188.35988425926</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54094,7 +54094,7 @@
         <v>45644.49726851852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54151,7 +54151,7 @@
         <v>44431</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45342.93903935186</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>44910</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54322,7 +54322,7 @@
         <v>45156.75122685185</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         <v>44566</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54436,7 +54436,7 @@
         <v>45373.4965625</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54493,7 +54493,7 @@
         <v>45770.36494212963</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45210</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>44909</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>44909.51342592593</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45622.7463425926</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45668.48770833333</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45702.63559027778</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>44351.66695601852</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54954,7 +54954,7 @@
         <v>45156.74657407407</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55011,7 +55011,7 @@
         <v>44866.62503472222</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55068,7 +55068,7 @@
         <v>44755</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         <v>44594.37378472222</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55182,7 +55182,7 @@
         <v>44992.52833333334</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55239,7 +55239,7 @@
         <v>45373.43667824074</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55296,7 +55296,7 @@
         <v>45085.55108796297</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55353,7 +55353,7 @@
         <v>45705.37840277778</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55410,7 +55410,7 @@
         <v>45551.45940972222</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55467,7 +55467,7 @@
         <v>45177</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55529,7 +55529,7 @@
         <v>45475.70619212963</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         <v>44386.57552083334</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55643,7 +55643,7 @@
         <v>44910</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55700,7 +55700,7 @@
         <v>45205.32967592592</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55757,7 +55757,7 @@
         <v>44463.49472222223</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>45401.70074074074</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>45239</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55928,7 +55928,7 @@
         <v>45089</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>45079</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56047,7 +56047,7 @@
         <v>45429.49690972222</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56104,7 +56104,7 @@
         <v>44798</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56161,7 +56161,7 @@
         <v>45730.29663194445</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56218,7 +56218,7 @@
         <v>45762.62880787037</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56275,7 +56275,7 @@
         <v>44785.36618055555</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56332,7 +56332,7 @@
         <v>45113</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56389,7 +56389,7 @@
         <v>44880.27605324074</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56446,7 +56446,7 @@
         <v>44488</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56503,7 +56503,7 @@
         <v>45177</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         <v>45089.45716435185</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56622,7 +56622,7 @@
         <v>45208</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56679,7 +56679,7 @@
         <v>45534.65803240741</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>45702.63752314815</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45342.58545138889</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56855,7 +56855,7 @@
         <v>45484.50256944444</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56912,7 +56912,7 @@
         <v>45706.59305555555</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56969,7 +56969,7 @@
         <v>45572.49996527778</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         <v>45756.46728009259</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57083,7 +57083,7 @@
         <v>44700.52403935185</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57140,7 +57140,7 @@
         <v>44622</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57197,7 +57197,7 @@
         <v>45240.54020833333</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57254,7 +57254,7 @@
         <v>44419</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57311,7 +57311,7 @@
         <v>44865</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57368,7 +57368,7 @@
         <v>45744.35152777778</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57425,7 +57425,7 @@
         <v>45761.7169212963</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57487,7 +57487,7 @@
         <v>45762.37043981482</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57544,7 +57544,7 @@
         <v>44749</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57601,7 +57601,7 @@
         <v>44973.8353125</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57658,7 +57658,7 @@
         <v>45175</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57715,7 +57715,7 @@
         <v>45308.45605324074</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57772,7 +57772,7 @@
         <v>45149.52997685185</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57829,7 +57829,7 @@
         <v>45210</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57886,7 +57886,7 @@
         <v>44881</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57943,7 +57943,7 @@
         <v>44369</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58000,7 +58000,7 @@
         <v>45175.80216435185</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58057,7 +58057,7 @@
         <v>45728.71802083333</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58114,7 +58114,7 @@
         <v>45371.47248842593</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58171,7 +58171,7 @@
         <v>44743</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58228,7 +58228,7 @@
         <v>44594</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58285,7 +58285,7 @@
         <v>45320.32636574074</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58342,7 +58342,7 @@
         <v>45741.39699074074</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58399,7 +58399,7 @@
         <v>44298.33628472222</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58456,7 +58456,7 @@
         <v>45681</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>44882</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58575,7 +58575,7 @@
         <v>45679</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58632,7 +58632,7 @@
         <v>45586</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58689,7 +58689,7 @@
         <v>44606.73197916667</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58746,7 +58746,7 @@
         <v>45545.46103009259</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58803,7 +58803,7 @@
         <v>45449.73532407408</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58860,7 +58860,7 @@
         <v>45070</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58917,7 +58917,7 @@
         <v>45601.6175</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58974,7 +58974,7 @@
         <v>44277</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59031,7 +59031,7 @@
         <v>45476.37739583333</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45489.67844907408</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45587.39587962963</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45785.57039351852</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59259,7 +59259,7 @@
         <v>45785.33315972222</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59316,7 +59316,7 @@
         <v>45785.5658912037</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         <v>45230.60619212963</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59430,7 +59430,7 @@
         <v>44867.83456018518</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59487,7 +59487,7 @@
         <v>45489</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59544,7 +59544,7 @@
         <v>45786.3628125</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59601,7 +59601,7 @@
         <v>45786.36038194445</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59658,7 +59658,7 @@
         <v>45625</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59715,7 +59715,7 @@
         <v>45706.64979166666</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59772,7 +59772,7 @@
         <v>45786.35825231481</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59829,7 +59829,7 @@
         <v>45547.5259375</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59886,7 +59886,7 @@
         <v>45785.85196759259</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59943,7 +59943,7 @@
         <v>45673.35722222222</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60000,7 +60000,7 @@
         <v>45572.50128472222</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60057,7 +60057,7 @@
         <v>45665.30042824074</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60114,7 +60114,7 @@
         <v>44315.61856481482</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60171,7 +60171,7 @@
         <v>45534.67787037037</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60228,7 +60228,7 @@
         <v>45357.56929398148</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60285,7 +60285,7 @@
         <v>45301</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60342,7 +60342,7 @@
         <v>44300.37375</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60399,7 +60399,7 @@
         <v>45401.55627314815</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60456,7 +60456,7 @@
         <v>45367.30908564815</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60513,7 +60513,7 @@
         <v>45246.69150462963</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60570,7 +60570,7 @@
         <v>45370</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60627,7 +60627,7 @@
         <v>45790.8237962963</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60684,7 +60684,7 @@
         <v>45792.4578587963</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60746,7 +60746,7 @@
         <v>45792.46865740741</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45792.46319444444</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60870,7 +60870,7 @@
         <v>45792.46534722222</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60932,7 +60932,7 @@
         <v>45701.1425</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60989,7 +60989,7 @@
         <v>45761.54658564815</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61046,7 +61046,7 @@
         <v>45796.54754629629</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>

--- a/Översikt NYBRO.xlsx
+++ b/Översikt NYBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44460.70982638889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45730.63277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>44606</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45810.50783564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45189</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>46034.37697916666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45616</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44490</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>45352.45320601852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45888.34414351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>45888.42650462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>44867</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45735.34555555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44266</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>45358.44835648148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44785.43395833333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45652.74018518518</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45853</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>45832</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>45075</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45695.93653935185</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>46041.4778125</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>46009.57502314815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44937</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45174.32886574074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44980</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45093.3646875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45093.3703587963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45428.42564814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45594</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>45110</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44448.31037037037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44966.64579861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>45111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44917</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>45891.63179398148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>45898.59107638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44365</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45840.8834375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>45604.50471064815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>45616.66118055556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>45850.60619212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>45863.39380787037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45754.48619212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45042</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>45695.93015046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>45096</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45999.37929398148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>46002.38959490741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45721.65631944445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>45449.38423611111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>46008.54748842592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>46057.69800925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>46057.69100694444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44917</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45615.62699074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45316</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>45581.56951388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>45307</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44504.50979166666</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44656</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>45541.51222222222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>45701.45335648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>44909</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44261</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>44347</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44378</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44272</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>44300.3625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>44385.40346064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>44491</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>44278</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>44379</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44462</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>44363.76037037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44267.32773148148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>44407.35815972222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>44630</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44418.56681712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>44320</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>44236</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         <v>44342.65030092592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>44365</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44363.75403935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44889.52459490741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44412</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44859</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44861</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>44475</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>44246</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>44365</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>44473.51576388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44245</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44449.57666666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>44587</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>44656</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44816</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44571.48392361111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44844</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44645.61962962963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44565</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44256</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44365</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44312.52064814815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44593.58975694444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44831.51668981482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44840</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>44783</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>44365</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44375.42613425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44369</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44566</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44328</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44684</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44347</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44806.30436342592</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44315.67481481482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44364.69368055555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44493.7688425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44488.93328703703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44833.85800925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44386.50282407407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44468.38931712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44587</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44624.4716087963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44294.69576388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44449.61309027778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44449</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>44419</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>44321.32876157408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>44295.56511574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>44340.37452546296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44363.75775462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>44284</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>44259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>44870.4825462963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>44776.4441087963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44771.403125</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44748.39954861111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44365</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44270.62047453703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44612.64552083334</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44407.33940972222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44449</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44617.57709490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44551</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44508</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44246</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44853</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>44851</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44449.61662037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44594.37494212963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>44378.26744212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44418</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44370.25283564815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44881.46946759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44551.60501157407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44813.46402777778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>44785.35797453704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>44378.27100694444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44650</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44839.34592592593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44805.72581018518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44243.24046296296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44250</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44299.65049768519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44300.5134375</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44363.75042824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44526.31395833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44376.47229166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44375.39068287037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44578.49199074074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44407.35585648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44407.35945601852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44384</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44634</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44634</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44870.4822337963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44376</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44551</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45273.43420138889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45687.58510416667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45775.61712962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>45022</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>45488.44295138889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>45649.55618055556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>45649.59947916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>45082.42459490741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45517.5049074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45054</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45230.60807870371</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44489</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>45123.42461805556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>45091.44966435185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>45092.3945949074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45606.57449074074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44819</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>45162</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>45392.56559027778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>44984</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>45278</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>45075</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>44657</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44544.63826388889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>45181</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44295</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44818</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44933.42714120371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44973.87971064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45775.59509259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44985.4822337963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>45577.88273148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45561</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>45307</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>45394.66318287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45175</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45021</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>45702.6415625</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45028.64141203704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45111.3095949074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45668.49403935186</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>45327.3969212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>45376.57670138889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>45037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>45728.58208333333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44243</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>44909.50149305556</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44909.51041666666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44494.38530092593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44973.51290509259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44594</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45448.40923611111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45149</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45189</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>45729.53497685185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>45107.72561342592</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>44982.82561342593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>45887.44094907407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45727</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45754.5805787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44302.60905092592</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45798.38493055556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45189</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>44833.86636574074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>45075</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>45773</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45260</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45525.37091435185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45873</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45761.36119212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>44936.7375925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45849.46460648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>45106.66513888889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>45547.44084490741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45791.46207175926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45849.47482638889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44302</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>45805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45049</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45222.46246527778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45253</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45737.66273148148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45121</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>45685.44299768518</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44609.62754629629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45791.45240740741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>45366.36186342593</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45698.47010416666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45727.54988425926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45810.50623842593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45888.65425925926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44407.34103009259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45260</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45888.41995370371</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44351</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45628</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45888</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45346.58555555555</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44992.53199074074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45812.31928240741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45813.61375</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>45409.28716435185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45891.37724537037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45812.59289351852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45561</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45561</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45813.61592592593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45813.61734953704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>44928.58678240741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45894</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44690.55664351852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45894.45178240741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45894.45385416667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>45572.55528935185</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44778.47969907407</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45664</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44362</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44867.83100694444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45798.87049768519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45338.3546412037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>45484.50075231482</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>45407.33482638889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>45818</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>45818.33222222222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>45824.63803240741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45820.40359953704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45446.57478009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>45225</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45820.4099537037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45821.48188657407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44949.39141203704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45901.85667824074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45901.8715625</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45820.40600694445</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45820.43005787037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45852.64087962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45063</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45254.55388888889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>45478</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45825.38628472222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45905.61746527778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44959.60054398148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>45188</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>44308</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45702.52855324074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45908.56230324074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45824.57248842593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45908.49853009259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>44915.64974537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45744.34409722222</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45840.8866087963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45394.64731481481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45824.47503472222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45911.40376157407</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45824.56317129629</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45525.33855324074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>44721</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45910.73662037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45911.42645833334</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>44903.63063657407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>44453</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>45368.71136574074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45369.51261574074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45772.56983796296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45914.37706018519</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45915.28944444445</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44390</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44368.47782407407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>45912.47719907408</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44853.58972222222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>45912.49222222222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>44890.45898148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44951.40828703704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>45917.62305555555</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45917.64195601852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45917.55601851852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45917.55890046297</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45429.32715277778</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45331.60153935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45561.61627314815</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45917.45019675926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45223</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45917.78599537037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45831.28561342593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45918.64011574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45210.43765046296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45833.63016203704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45561.42905092592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44497.23909722222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45921.35350694445</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45757.42518518519</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45091.44643518519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45832</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45925.73370370371</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45240.48289351852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44914.47359953704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44914.5846875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45925.48741898148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45833.62319444444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44931.48902777778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>45923.75690972222</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45834.48547453704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45096</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45359.64494212963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45834.48055555556</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45926.54017361111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45926.54600694445</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45926.56071759259</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>45279</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45925.83987268519</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>45926.53236111111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45926.46402777778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45926.46829861111</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45834.42243055555</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>45926.48134259259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>45926.72231481481</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>45926.72728009259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>45728.71716435185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45926.72362268518</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>45926.45481481482</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>45926.45870370371</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45517.57674768518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45834.49290509259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>45931</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>45930</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>45930</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45931</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45931</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44832.45126157408</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45931.69703703704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44733.39600694444</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28818,7 +28818,7 @@
         <v>45933.57952546296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44382</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>45694.35719907407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>44275.89116898148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44390.44760416666</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>45754.4484375</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44270</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>45837.43159722222</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>45837.45643518519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>45933.42581018519</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45841.34291666667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45936.54049768519</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45191.43909722222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>44865.32546296297</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45217.64325231482</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45938.50009259259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45938.59039351852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45145</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45145.57739583333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>45840.36429398148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45434.42591435185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>45163.48395833333</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>45182</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45938.50091435185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45938.64991898148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44819</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>44528.68445601852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>45616.69401620371</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45744.58425925926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>45091.44322916667</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45169.62481481482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45940.33195601852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45943.655625</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45233</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45616.68453703704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45842.47361111111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45103.42912037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45103.4578125</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45940.35447916666</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45940.39543981481</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45817.4940625</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45940.44003472223</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45945.36599537037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45846.46805555555</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>45342.93295138889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>45846.47327546297</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45670.48837962963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45321.30368055555</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45649.63702546297</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45213.83515046296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44868</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45947.63015046297</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>45946.88928240741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>45946.40403935185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45946.88241898148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45629.52961805555</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45852.67128472222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45135</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45832</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44945.47278935185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44333.68109953704</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45856.43209490741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45856.42729166667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45211.43076388889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45856.4249537037</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>45859.46207175926</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>45762.47326388889</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45951.35694444444</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45951.49403935186</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45862.61716435185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45862.62265046296</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45863.79356481481</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45863.78525462963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45818</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45863.79833333333</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45953</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45637.55811342593</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45616.70280092592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44811.50899305556</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45713.67922453704</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45714.24815972222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45953</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45096</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>44368.48951388889</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45216</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44909.49190972222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44991.4569212963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45873.50734953704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45069.42486111111</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44236</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45679</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44973.68408564815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44684.43402777778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45764</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45764</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44974.39552083334</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45057</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45057</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45958.35737268518</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45958.60134259259</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44431</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45958.37892361111</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>44972</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>45606.57791666667</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>45958.37803240741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>45958.37961805556</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45958.37677083333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>45217.49613425926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>45174.32129629629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>45881.43982638889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45385.47306712963</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45011</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>45880.33408564814</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44645.61398148148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45880.32877314815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45400.70824074074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>45964.30596064815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44462</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44463.49251157408</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45231</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45610.49638888889</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45055.32497685185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45966.34114583334</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45966.7106712963</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45744.56760416667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>45713</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>45714.28113425926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>45882.68072916667</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45882.68247685185</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45883.58712962963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45664.89855324074</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>45253</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>45411.56006944444</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>45883.60289351852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>45191.39680555555</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>45710.35591435185</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>45474.54547453704</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>45649.57708333333</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>45649.58368055556</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45649.63318287037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>45762.406875</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37111,7 +37111,7 @@
         <v>44917</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44938.4812962963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44376</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37287,7 +37287,7 @@
         <v>45975.52554398148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37344,7 +37344,7 @@
         <v>45737.66959490741</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37401,7 +37401,7 @@
         <v>45975.57657407408</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37458,7 +37458,7 @@
         <v>45603</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
         <v>44335</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37572,7 +37572,7 @@
         <v>45560.66090277778</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         <v>44505</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>45253</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>45603</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>45602</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37857,7 +37857,7 @@
         <v>45648</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>45975.56870370371</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>45974.37464120371</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>45775</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>45975.56442129629</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44867</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>45975.52761574074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>45169.63607638889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44364</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>45166.81506944444</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45975.82456018519</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>45280.75414351852</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>45758.47427083334</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>45603</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44580.39465277778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>45591.31592592593</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>45043</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>45616.69777777778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>45981.33762731482</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38955,7 +38955,7 @@
         <v>45981.33881944444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45981.34174768518</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39079,7 +39079,7 @@
         <v>45980.57716435185</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45980.58033564815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39203,7 +39203,7 @@
         <v>45980.58306712963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>45980.58913194444</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39327,7 +39327,7 @@
         <v>45426.64987268519</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39384,7 +39384,7 @@
         <v>45980.58837962963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>45981.34046296297</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39508,7 +39508,7 @@
         <v>45050</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39565,7 +39565,7 @@
         <v>45980.58503472222</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39627,7 +39627,7 @@
         <v>45980.58711805556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>45330</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>45980.58179398148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>45103.4828125</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39865,7 +39865,7 @@
         <v>45980.56716435185</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39927,7 +39927,7 @@
         <v>44974.3628125</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39984,7 +39984,7 @@
         <v>45980.56981481481</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40046,7 +40046,7 @@
         <v>44693.40193287037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40108,7 +40108,7 @@
         <v>44739</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
         <v>45985.65287037037</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40222,7 +40222,7 @@
         <v>45664.88829861111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>44494.39315972223</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40336,7 +40336,7 @@
         <v>45296</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>45187.45348379629</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>44586.39371527778</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40507,7 +40507,7 @@
         <v>45986.55488425926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40564,7 +40564,7 @@
         <v>46029.59989583334</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40621,7 +40621,7 @@
         <v>44904</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40678,7 +40678,7 @@
         <v>45986.53271990741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40740,7 +40740,7 @@
         <v>45986.56459490741</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         <v>46029.59649305556</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40854,7 +40854,7 @@
         <v>45986.46010416667</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         <v>44348</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>45987</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41035,7 +41035,7 @@
         <v>44798.56335648148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>45733.60050925926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41149,7 +41149,7 @@
         <v>44266.66663194444</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41206,7 +41206,7 @@
         <v>45415.32408564815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41263,7 +41263,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41320,7 +41320,7 @@
         <v>44977.54047453704</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41377,7 +41377,7 @@
         <v>45721</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41434,7 +41434,7 @@
         <v>45035</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         <v>46031.4325462963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>46031.66224537037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>44909</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45090.53722222222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44621</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>44579.36934027778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45392.59135416667</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45372.34578703704</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45988.49348379629</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>44803</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>44904</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>44904</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45560.65891203703</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45079.49798611111</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45763</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45197</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45469.49331018519</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>44418</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45993.52201388889</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45478.55826388889</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>46034.41659722223</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>44939.46715277778</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45762.6184375</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>44966.65418981481</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>44966.65623842592</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>46036.49694444444</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45313</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45079</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45733.27633101852</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45090.50210648148</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45756.4618287037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45342.58582175926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>44908</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45561</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43439,7 +43439,7 @@
         <v>45177</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>45327</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>45090.57193287037</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43615,7 +43615,7 @@
         <v>45110</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         <v>45720.48189814815</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>45078</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>45999.38480324074</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>45013.53428240741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43910,7 +43910,7 @@
         <v>45754.58804398148</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43972,7 +43972,7 @@
         <v>45999.64255787037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44034,7 +44034,7 @@
         <v>44900.47381944444</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44091,7 +44091,7 @@
         <v>45072</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44148,7 +44148,7 @@
         <v>44465.45304398148</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44205,7 +44205,7 @@
         <v>45713</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>45407.58145833333</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>45177</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44381,7 +44381,7 @@
         <v>46000.39462962963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44438,7 +44438,7 @@
         <v>44970.82792824074</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44495,7 +44495,7 @@
         <v>45763</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44552,7 +44552,7 @@
         <v>46000.64511574074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>45477.45034722222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44666,7 +44666,7 @@
         <v>45551.45708333333</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44723,7 +44723,7 @@
         <v>44868.38045138889</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45728.57760416667</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>44866.6291550926</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45022.47684027778</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>45077</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>45196.41028935185</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>46002.38592592593</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>45190</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>45408.42273148148</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>45615</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44368.48412037037</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45069.67789351852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>46048.58149305556</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>46049.44773148148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>45369.55871527778</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>44957</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45640,7 +45640,7 @@
         <v>44957.56633101852</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45697,7 +45697,7 @@
         <v>45695.44407407408</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45754,7 +45754,7 @@
         <v>44333.63303240741</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>45013.59971064814</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45552.43833333333</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>45149.53783564815</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>45440</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>45082</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44973</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>45092.3869675926</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>46051.57055555555</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45754.57761574074</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44999</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>44596.39430555556</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>45754.57903935185</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46520,7 +46520,7 @@
         <v>46010</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>46052.44471064815</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>44841</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>46054.86493055556</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>45121</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46805,7 +46805,7 @@
         <v>45575.40405092593</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46862,7 +46862,7 @@
         <v>45098</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46919,7 +46919,7 @@
         <v>45072.49364583333</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46976,7 +46976,7 @@
         <v>45022</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47033,7 +47033,7 @@
         <v>46052.44284722222</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45470.66217592593</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>46052.44387731481</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>44959</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47261,7 +47261,7 @@
         <v>46057.68822916667</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47318,7 +47318,7 @@
         <v>44839</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47375,7 +47375,7 @@
         <v>45369.51451388889</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47432,7 +47432,7 @@
         <v>46057.68931712963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47489,7 +47489,7 @@
         <v>45093.41260416667</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47546,7 +47546,7 @@
         <v>45463</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47603,7 +47603,7 @@
         <v>45093</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47660,7 +47660,7 @@
         <v>45121.62556712963</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47717,7 +47717,7 @@
         <v>45561</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47779,7 +47779,7 @@
         <v>45561</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47841,7 +47841,7 @@
         <v>44746.52041666667</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47898,7 +47898,7 @@
         <v>45439.56545138889</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47955,7 +47955,7 @@
         <v>45534.39119212963</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48012,7 +48012,7 @@
         <v>44882</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         <v>45075</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48126,7 +48126,7 @@
         <v>46058.68314814815</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48183,7 +48183,7 @@
         <v>45070</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48240,7 +48240,7 @@
         <v>45244</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48297,7 +48297,7 @@
         <v>44881.47697916667</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48354,7 +48354,7 @@
         <v>45478.47974537037</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48411,7 +48411,7 @@
         <v>45740.58935185185</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48468,7 +48468,7 @@
         <v>44869.44665509259</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48525,7 +48525,7 @@
         <v>45154.46340277778</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48587,7 +48587,7 @@
         <v>44873.78972222222</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48644,7 +48644,7 @@
         <v>44908</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48701,7 +48701,7 @@
         <v>45155</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48758,7 +48758,7 @@
         <v>45084.52010416667</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48815,7 +48815,7 @@
         <v>44973.68172453704</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48872,7 +48872,7 @@
         <v>45442.44923611111</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48929,7 +48929,7 @@
         <v>45336</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48986,7 +48986,7 @@
         <v>44844</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49043,7 +49043,7 @@
         <v>45079.47167824074</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49100,7 +49100,7 @@
         <v>45315</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49157,7 +49157,7 @@
         <v>45341.43773148148</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49214,7 +49214,7 @@
         <v>45509.84324074074</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49271,7 +49271,7 @@
         <v>45510.39084490741</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49328,7 +49328,7 @@
         <v>44713.63434027778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49385,7 +49385,7 @@
         <v>45367.29472222222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49442,7 +49442,7 @@
         <v>45635.46313657407</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49499,7 +49499,7 @@
         <v>45475.72082175926</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>45475.76681712963</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49613,7 +49613,7 @@
         <v>44825.37355324074</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49670,7 +49670,7 @@
         <v>45666.41087962963</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49727,7 +49727,7 @@
         <v>44497</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49784,7 +49784,7 @@
         <v>45554</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49846,7 +49846,7 @@
         <v>45763.38137731481</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49908,7 +49908,7 @@
         <v>45363.79693287037</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45071</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50022,7 +50022,7 @@
         <v>45117.52946759259</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50079,7 +50079,7 @@
         <v>45356.37466435185</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50136,7 +50136,7 @@
         <v>45175.79483796296</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50193,7 +50193,7 @@
         <v>44953</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50250,7 +50250,7 @@
         <v>45335</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50307,7 +50307,7 @@
         <v>45335</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50369,7 +50369,7 @@
         <v>45218.41752314815</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50426,7 +50426,7 @@
         <v>45093</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>45078</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50540,7 +50540,7 @@
         <v>44816</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50597,7 +50597,7 @@
         <v>44928</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50654,7 +50654,7 @@
         <v>45414.88950231481</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50711,7 +50711,7 @@
         <v>44307.41146990741</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50768,7 +50768,7 @@
         <v>45653.66523148148</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50825,7 +50825,7 @@
         <v>44713.6349537037</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50882,7 +50882,7 @@
         <v>45545</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50939,7 +50939,7 @@
         <v>45734.48820601852</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50996,7 +50996,7 @@
         <v>45385</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51053,7 +51053,7 @@
         <v>45668.61670138889</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51110,7 +51110,7 @@
         <v>44889</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51167,7 +51167,7 @@
         <v>45754.58637731482</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51229,7 +51229,7 @@
         <v>45111.56173611111</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51286,7 +51286,7 @@
         <v>45131</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51343,7 +51343,7 @@
         <v>44756</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51405,7 +51405,7 @@
         <v>45063.42767361111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51462,7 +51462,7 @@
         <v>44874.3702662037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51519,7 +51519,7 @@
         <v>45119.35530092593</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51576,7 +51576,7 @@
         <v>45104.47891203704</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51638,7 +51638,7 @@
         <v>44368</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>44677</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>45198.49947916667</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51809,7 +51809,7 @@
         <v>45579</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51866,7 +51866,7 @@
         <v>45301.31474537037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51923,7 +51923,7 @@
         <v>45301.32008101852</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51980,7 +51980,7 @@
         <v>45649.56231481482</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52037,7 +52037,7 @@
         <v>45649.56582175926</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52094,7 +52094,7 @@
         <v>45512.32738425926</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52151,7 +52151,7 @@
         <v>44742</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52208,7 +52208,7 @@
         <v>44340.37858796296</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52265,7 +52265,7 @@
         <v>45359.64686342593</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52322,7 +52322,7 @@
         <v>44713.63319444445</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52379,7 +52379,7 @@
         <v>44917.52387731482</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52441,7 +52441,7 @@
         <v>45096</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52498,7 +52498,7 @@
         <v>45590.48756944444</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52555,7 +52555,7 @@
         <v>44798</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52612,7 +52612,7 @@
         <v>44593</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52669,7 +52669,7 @@
         <v>45098</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52726,7 +52726,7 @@
         <v>45392.56177083333</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52783,7 +52783,7 @@
         <v>44746.56648148148</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52840,7 +52840,7 @@
         <v>45056</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52897,7 +52897,7 @@
         <v>45118</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52954,7 +52954,7 @@
         <v>45118.44516203704</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         <v>45579</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53068,7 +53068,7 @@
         <v>45056.72038194445</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53125,7 +53125,7 @@
         <v>45544.7580787037</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53182,7 +53182,7 @@
         <v>44827</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53239,7 +53239,7 @@
         <v>44973.28375</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53296,7 +53296,7 @@
         <v>44407.33692129629</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53353,7 +53353,7 @@
         <v>45016.44748842593</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53410,7 +53410,7 @@
         <v>44825</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53467,7 +53467,7 @@
         <v>45653.6771875</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53524,7 +53524,7 @@
         <v>45095</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53581,7 +53581,7 @@
         <v>45244</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53638,7 +53638,7 @@
         <v>45744.33675925926</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53695,7 +53695,7 @@
         <v>45211</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53752,7 +53752,7 @@
         <v>45367.31642361111</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53809,7 +53809,7 @@
         <v>45773</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53866,7 +53866,7 @@
         <v>45072.49809027778</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53923,7 +53923,7 @@
         <v>45244</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53980,7 +53980,7 @@
         <v>44999.51451388889</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54037,7 +54037,7 @@
         <v>45188.35988425926</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54094,7 +54094,7 @@
         <v>45644.49726851852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54151,7 +54151,7 @@
         <v>44431</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45342.93903935186</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>44910</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54322,7 +54322,7 @@
         <v>45156.75122685185</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         <v>44566</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54436,7 +54436,7 @@
         <v>45373.4965625</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54493,7 +54493,7 @@
         <v>45770.36494212963</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54550,7 +54550,7 @@
         <v>45210</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54607,7 +54607,7 @@
         <v>44909</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54664,7 +54664,7 @@
         <v>44909.51342592593</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54721,7 +54721,7 @@
         <v>45622.7463425926</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54778,7 +54778,7 @@
         <v>45668.48770833333</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54835,7 +54835,7 @@
         <v>45702.63559027778</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54897,7 +54897,7 @@
         <v>44351.66695601852</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54954,7 +54954,7 @@
         <v>45156.74657407407</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55011,7 +55011,7 @@
         <v>44866.62503472222</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55068,7 +55068,7 @@
         <v>44755</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         <v>44594.37378472222</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55182,7 +55182,7 @@
         <v>44992.52833333334</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55239,7 +55239,7 @@
         <v>45373.43667824074</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55296,7 +55296,7 @@
         <v>45085.55108796297</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55353,7 +55353,7 @@
         <v>45705.37840277778</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55410,7 +55410,7 @@
         <v>45551.45940972222</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55467,7 +55467,7 @@
         <v>45177</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55529,7 +55529,7 @@
         <v>45475.70619212963</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         <v>44386.57552083334</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55643,7 +55643,7 @@
         <v>44910</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55700,7 +55700,7 @@
         <v>45205.32967592592</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55757,7 +55757,7 @@
         <v>44463.49472222223</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>45401.70074074074</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>45239</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55928,7 +55928,7 @@
         <v>45089</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>45079</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56047,7 +56047,7 @@
         <v>45429.49690972222</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56104,7 +56104,7 @@
         <v>44798</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56161,7 +56161,7 @@
         <v>45730.29663194445</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56218,7 +56218,7 @@
         <v>45762.62880787037</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56275,7 +56275,7 @@
         <v>44785.36618055555</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56332,7 +56332,7 @@
         <v>45113</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56389,7 +56389,7 @@
         <v>44880.27605324074</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56446,7 +56446,7 @@
         <v>44488</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56503,7 +56503,7 @@
         <v>45177</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         <v>45089.45716435185</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56622,7 +56622,7 @@
         <v>45208</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56679,7 +56679,7 @@
         <v>45534.65803240741</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>45702.63752314815</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45342.58545138889</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56855,7 +56855,7 @@
         <v>45484.50256944444</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -56912,7 +56912,7 @@
         <v>45706.59305555555</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -56969,7 +56969,7 @@
         <v>45572.49996527778</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         <v>45756.46728009259</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57083,7 +57083,7 @@
         <v>44700.52403935185</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57140,7 +57140,7 @@
         <v>44622</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57197,7 +57197,7 @@
         <v>45240.54020833333</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57254,7 +57254,7 @@
         <v>44419</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57311,7 +57311,7 @@
         <v>44865</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57368,7 +57368,7 @@
         <v>45744.35152777778</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57425,7 +57425,7 @@
         <v>45761.7169212963</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57487,7 +57487,7 @@
         <v>45762.37043981482</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57544,7 +57544,7 @@
         <v>44749</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57601,7 +57601,7 @@
         <v>44973.8353125</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57658,7 +57658,7 @@
         <v>45175</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57715,7 +57715,7 @@
         <v>45308.45605324074</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57772,7 +57772,7 @@
         <v>45149.52997685185</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57829,7 +57829,7 @@
         <v>45210</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -57886,7 +57886,7 @@
         <v>44881</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -57943,7 +57943,7 @@
         <v>44369</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58000,7 +58000,7 @@
         <v>45175.80216435185</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58057,7 +58057,7 @@
         <v>45728.71802083333</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58114,7 +58114,7 @@
         <v>45371.47248842593</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58171,7 +58171,7 @@
         <v>44743</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58228,7 +58228,7 @@
         <v>44594</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58285,7 +58285,7 @@
         <v>45320.32636574074</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58342,7 +58342,7 @@
         <v>45741.39699074074</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58399,7 +58399,7 @@
         <v>44298.33628472222</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58456,7 +58456,7 @@
         <v>45681</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>44882</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58575,7 +58575,7 @@
         <v>45679</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58632,7 +58632,7 @@
         <v>45586</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58689,7 +58689,7 @@
         <v>44606.73197916667</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58746,7 +58746,7 @@
         <v>45545.46103009259</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58803,7 +58803,7 @@
         <v>45449.73532407408</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -58860,7 +58860,7 @@
         <v>45070</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -58917,7 +58917,7 @@
         <v>45601.6175</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -58974,7 +58974,7 @@
         <v>44277</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59031,7 +59031,7 @@
         <v>45476.37739583333</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59088,7 +59088,7 @@
         <v>45489.67844907408</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59145,7 +59145,7 @@
         <v>45587.39587962963</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59202,7 +59202,7 @@
         <v>45785.57039351852</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59259,7 +59259,7 @@
         <v>45785.33315972222</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59316,7 +59316,7 @@
         <v>45785.5658912037</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         <v>45230.60619212963</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59430,7 +59430,7 @@
         <v>44867.83456018518</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59487,7 +59487,7 @@
         <v>45489</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59544,7 +59544,7 @@
         <v>45786.3628125</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59601,7 +59601,7 @@
         <v>45786.36038194445</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59658,7 +59658,7 @@
         <v>45625</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59715,7 +59715,7 @@
         <v>45706.64979166666</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59772,7 +59772,7 @@
         <v>45786.35825231481</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59829,7 +59829,7 @@
         <v>45547.5259375</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -59886,7 +59886,7 @@
         <v>45785.85196759259</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -59943,7 +59943,7 @@
         <v>45673.35722222222</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60000,7 +60000,7 @@
         <v>45572.50128472222</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60057,7 +60057,7 @@
         <v>45665.30042824074</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60114,7 +60114,7 @@
         <v>44315.61856481482</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60171,7 +60171,7 @@
         <v>45534.67787037037</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60228,7 +60228,7 @@
         <v>45357.56929398148</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60285,7 +60285,7 @@
         <v>45301</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60342,7 +60342,7 @@
         <v>44300.37375</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60399,7 +60399,7 @@
         <v>45401.55627314815</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60456,7 +60456,7 @@
         <v>45367.30908564815</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60513,7 +60513,7 @@
         <v>45246.69150462963</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60570,7 +60570,7 @@
         <v>45370</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60627,7 +60627,7 @@
         <v>45790.8237962963</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60684,7 +60684,7 @@
         <v>45792.4578587963</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60746,7 +60746,7 @@
         <v>45792.46865740741</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60808,7 +60808,7 @@
         <v>45792.46319444444</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -60870,7 +60870,7 @@
         <v>45792.46534722222</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -60932,7 +60932,7 @@
         <v>45701.1425</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -60989,7 +60989,7 @@
         <v>45761.54658564815</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61046,7 +61046,7 @@
         <v>45796.54754629629</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
